--- a/180105 Pagos Uber.xlsx
+++ b/180105 Pagos Uber.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emilio\Box Sync\ISA F\UBER\Pagos Uber\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MUTUO\UberIsaF\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -411,7 +411,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -509,8 +509,16 @@
       <color theme="1"/>
       <name val="AR DARLING"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -541,6 +549,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF01558B"/>
+        <bgColor rgb="FF01558B"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -565,7 +579,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -658,6 +672,7 @@
     </xf>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="16" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="14" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1377,13 +1392,13 @@
   <dimension ref="A1:S123"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="11" topLeftCell="I128" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="11" topLeftCell="I101" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="N131" sqref="N131"/>
+      <selection pane="bottomRight" activeCell="B124" sqref="B124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="1"/>
     <col min="2" max="2" width="28.140625" style="1" customWidth="1"/>
@@ -1400,7 +1415,7 @@
     <col min="16" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="27" customFormat="1">
       <c r="B1" s="36"/>
       <c r="C1" s="27">
         <f>2730.27*2</f>
@@ -1418,7 +1433,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="56.25" customHeight="1">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1456,7 +1471,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19">
       <c r="B3" s="4" t="s">
         <v>34</v>
       </c>
@@ -1497,7 +1512,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19">
       <c r="A4" s="11"/>
       <c r="B4" s="4" t="s">
         <v>8</v>
@@ -1543,7 +1558,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19">
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -1576,7 +1591,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19">
       <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
@@ -1617,7 +1632,7 @@
         <v>43108</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19">
       <c r="B7" s="4"/>
       <c r="C7" s="7" t="s">
         <v>41</v>
@@ -1656,7 +1671,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19">
       <c r="B9" s="8" t="s">
         <v>16</v>
       </c>
@@ -1697,7 +1712,7 @@
         <v>428000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19">
       <c r="B10" s="34" t="s">
         <v>15</v>
       </c>
@@ -1748,12 +1763,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19">
       <c r="B11" s="33" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="32">
-        <f t="shared" ref="C11:N11" si="1">+C9-C10</f>
+        <f t="shared" ref="C11:M11" si="1">+C9-C10</f>
         <v>531783.83000000007</v>
       </c>
       <c r="D11" s="32">
@@ -1801,7 +1816,7 @@
         <v>428000</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="15.75" customHeight="1">
       <c r="C12" s="1">
         <v>1</v>
       </c>
@@ -1811,7 +1826,7 @@
       <c r="F12" s="9"/>
       <c r="J12" s="9"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19">
       <c r="B13" s="10">
         <v>43007</v>
       </c>
@@ -1857,7 +1872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" outlineLevel="1">
       <c r="A14" s="12">
         <v>43007</v>
       </c>
@@ -1896,7 +1911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" outlineLevel="1">
       <c r="A15" s="15"/>
       <c r="B15" s="16" t="s">
         <v>13</v>
@@ -1935,7 +1950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" outlineLevel="1">
       <c r="A16" s="12" t="s">
         <v>19</v>
       </c>
@@ -1974,7 +1989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" outlineLevel="1">
       <c r="A17" s="15"/>
       <c r="B17" s="18" t="s">
         <v>11</v>
@@ -2021,7 +2036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="14.25" customHeight="1">
       <c r="A18" s="15"/>
       <c r="B18" s="18" t="s">
         <v>21</v>
@@ -2068,7 +2083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13">
       <c r="A19" s="15"/>
       <c r="C19" s="1">
         <f>+C12+1</f>
@@ -2083,7 +2098,7 @@
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="A20" s="15"/>
       <c r="B20" s="10">
         <v>43014</v>
@@ -2130,7 +2145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" outlineLevel="1">
       <c r="A21" s="12">
         <v>43010</v>
       </c>
@@ -2157,7 +2172,7 @@
       <c r="L21" s="14"/>
       <c r="M21" s="14"/>
     </row>
-    <row r="22" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" outlineLevel="1">
       <c r="A22" s="15"/>
       <c r="B22" s="16" t="s">
         <v>13</v>
@@ -2204,7 +2219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" outlineLevel="1">
       <c r="A23" s="12" t="s">
         <v>18</v>
       </c>
@@ -2231,7 +2246,7 @@
       <c r="L23" s="14"/>
       <c r="M23" s="14"/>
     </row>
-    <row r="24" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" outlineLevel="1">
       <c r="A24" s="15"/>
       <c r="B24" s="18" t="s">
         <v>11</v>
@@ -2278,7 +2293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13">
       <c r="B25" s="18" t="s">
         <v>21</v>
       </c>
@@ -2324,7 +2339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13">
       <c r="C26" s="1">
         <f>+C19+1</f>
         <v>3</v>
@@ -2337,7 +2352,7 @@
       <c r="H26" s="21"/>
       <c r="I26" s="11"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13">
       <c r="B27" s="10">
         <v>43021</v>
       </c>
@@ -2383,7 +2398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" outlineLevel="1">
       <c r="A28" s="23">
         <v>43017</v>
       </c>
@@ -2410,7 +2425,7 @@
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
     </row>
-    <row r="29" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" outlineLevel="1">
       <c r="B29" s="16" t="s">
         <v>13</v>
       </c>
@@ -2456,7 +2471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" outlineLevel="1">
       <c r="A30" s="23" t="s">
         <v>20</v>
       </c>
@@ -2483,7 +2498,7 @@
       <c r="L30" s="14"/>
       <c r="M30" s="14"/>
     </row>
-    <row r="31" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" outlineLevel="1">
       <c r="B31" s="18" t="s">
         <v>11</v>
       </c>
@@ -2529,7 +2544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13">
       <c r="B32" s="18" t="s">
         <v>21</v>
       </c>
@@ -2575,7 +2590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13">
       <c r="C33" s="1">
         <f>+C26+1</f>
         <v>4</v>
@@ -2592,7 +2607,7 @@
       </c>
       <c r="I33" s="11"/>
     </row>
-    <row r="34" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="14.25" customHeight="1">
       <c r="B34" s="10">
         <v>43028</v>
       </c>
@@ -2638,7 +2653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" outlineLevel="1">
       <c r="A35" s="23">
         <v>43024</v>
       </c>
@@ -2665,7 +2680,7 @@
       <c r="L35" s="14"/>
       <c r="M35" s="14"/>
     </row>
-    <row r="36" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" outlineLevel="1">
       <c r="B36" s="16" t="s">
         <v>13</v>
       </c>
@@ -2711,7 +2726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" outlineLevel="1">
       <c r="A37" s="23">
         <v>43028</v>
       </c>
@@ -2734,7 +2749,7 @@
       <c r="L37" s="14"/>
       <c r="M37" s="14"/>
     </row>
-    <row r="38" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" outlineLevel="1">
       <c r="B38" s="18" t="s">
         <v>11</v>
       </c>
@@ -2780,7 +2795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13">
       <c r="B39" s="18" t="s">
         <v>21</v>
       </c>
@@ -2826,7 +2841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13">
       <c r="C40" s="29">
         <f>+C33+1</f>
         <v>5</v>
@@ -2847,7 +2862,7 @@
       <c r="H40" s="27"/>
       <c r="I40" s="27"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13">
       <c r="B41" s="10">
         <v>43035</v>
       </c>
@@ -2875,7 +2890,7 @@
       <c r="L41" s="11"/>
       <c r="M41" s="11"/>
     </row>
-    <row r="42" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" outlineLevel="1">
       <c r="A42" s="23">
         <v>43031</v>
       </c>
@@ -2902,7 +2917,7 @@
       <c r="L42" s="14"/>
       <c r="M42" s="14"/>
     </row>
-    <row r="43" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" outlineLevel="1">
       <c r="B43" s="16" t="s">
         <v>13</v>
       </c>
@@ -2930,7 +2945,7 @@
       <c r="L43" s="9"/>
       <c r="M43" s="9"/>
     </row>
-    <row r="44" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" outlineLevel="1">
       <c r="A44" s="28" t="s">
         <v>22</v>
       </c>
@@ -2955,7 +2970,7 @@
       <c r="L44" s="14"/>
       <c r="M44" s="14"/>
     </row>
-    <row r="45" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" outlineLevel="1">
       <c r="B45" s="18" t="s">
         <v>11</v>
       </c>
@@ -3001,7 +3016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13">
       <c r="B46" s="18" t="s">
         <v>21</v>
       </c>
@@ -3047,7 +3062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13">
       <c r="C47" s="29">
         <f>+C40+1</f>
         <v>6</v>
@@ -3068,7 +3083,7 @@
       <c r="I47" s="27"/>
       <c r="J47" s="26"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13">
       <c r="B48" s="10">
         <v>43038</v>
       </c>
@@ -3114,7 +3129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" outlineLevel="1">
       <c r="A49" s="23">
         <v>43038</v>
       </c>
@@ -3141,7 +3156,7 @@
       <c r="L49" s="14"/>
       <c r="M49" s="14"/>
     </row>
-    <row r="50" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" outlineLevel="1">
       <c r="B50" s="16" t="s">
         <v>13</v>
       </c>
@@ -3187,7 +3202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" outlineLevel="1">
       <c r="B51" s="17" t="s">
         <v>14</v>
       </c>
@@ -3205,7 +3220,7 @@
       <c r="L51" s="14"/>
       <c r="M51" s="14"/>
     </row>
-    <row r="52" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" outlineLevel="1">
       <c r="B52" s="18" t="s">
         <v>11</v>
       </c>
@@ -3251,7 +3266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13">
       <c r="B53" s="18" t="s">
         <v>21</v>
       </c>
@@ -3297,7 +3312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13">
       <c r="A54" s="24"/>
       <c r="C54" s="29">
         <f>+C47+1</f>
@@ -3319,7 +3334,7 @@
       <c r="H54" s="29"/>
       <c r="I54" s="29"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13">
       <c r="A55" s="24"/>
       <c r="B55" s="10">
         <v>43045</v>
@@ -3366,7 +3381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" outlineLevel="1">
       <c r="B56" s="13" t="s">
         <v>10</v>
       </c>
@@ -3390,7 +3405,7 @@
       <c r="L56" s="14"/>
       <c r="M56" s="14"/>
     </row>
-    <row r="57" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" outlineLevel="1">
       <c r="B57" s="16" t="s">
         <v>13</v>
       </c>
@@ -3436,7 +3451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" outlineLevel="1">
       <c r="A58" s="23">
         <v>43046</v>
       </c>
@@ -3459,7 +3474,7 @@
       <c r="L58" s="14"/>
       <c r="M58" s="14"/>
     </row>
-    <row r="59" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" outlineLevel="1">
       <c r="B59" s="18" t="s">
         <v>11</v>
       </c>
@@ -3505,7 +3520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13">
       <c r="B60" s="18" t="s">
         <v>21</v>
       </c>
@@ -3551,7 +3566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13">
       <c r="C61" s="29">
         <f>+C54+1</f>
         <v>8</v>
@@ -3572,7 +3587,7 @@
       <c r="H61" s="29"/>
       <c r="I61" s="29"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13">
       <c r="B62" s="10">
         <v>43052</v>
       </c>
@@ -3618,7 +3633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" outlineLevel="1">
       <c r="B63" s="13" t="s">
         <v>10</v>
       </c>
@@ -3642,7 +3657,7 @@
       <c r="L63" s="14"/>
       <c r="M63" s="14"/>
     </row>
-    <row r="64" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" outlineLevel="1">
       <c r="B64" s="16" t="s">
         <v>13</v>
       </c>
@@ -3688,7 +3703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" outlineLevel="1">
       <c r="A65" s="23">
         <v>43055</v>
       </c>
@@ -3711,7 +3726,7 @@
       <c r="L65" s="14"/>
       <c r="M65" s="14"/>
     </row>
-    <row r="66" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" outlineLevel="1">
       <c r="B66" s="18" t="s">
         <v>11</v>
       </c>
@@ -3739,7 +3754,7 @@
       <c r="L66" s="19"/>
       <c r="M66" s="19"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14">
       <c r="B67" s="18" t="s">
         <v>21</v>
       </c>
@@ -3785,7 +3800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14">
       <c r="B68" s="25"/>
       <c r="C68" s="29">
         <f>+C61+1</f>
@@ -3811,7 +3826,7 @@
       </c>
       <c r="J68" s="27"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14">
       <c r="B69" s="10">
         <v>43059</v>
       </c>
@@ -3857,7 +3872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" outlineLevel="1">
       <c r="B70" s="13" t="s">
         <v>10</v>
       </c>
@@ -3883,7 +3898,7 @@
       <c r="L70" s="14"/>
       <c r="M70" s="14"/>
     </row>
-    <row r="71" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" outlineLevel="1">
       <c r="B71" s="16" t="s">
         <v>13</v>
       </c>
@@ -3929,7 +3944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" outlineLevel="1">
       <c r="A72" s="23">
         <v>43062</v>
       </c>
@@ -3952,7 +3967,7 @@
       <c r="L72" s="14"/>
       <c r="M72" s="14"/>
     </row>
-    <row r="73" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" outlineLevel="1">
       <c r="B73" s="18" t="s">
         <v>11</v>
       </c>
@@ -3998,7 +4013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14">
       <c r="B74" s="18" t="s">
         <v>21</v>
       </c>
@@ -4044,7 +4059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14">
       <c r="C75" s="1">
         <f>+C68+1</f>
         <v>10</v>
@@ -4066,7 +4081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14">
       <c r="B76" s="10">
         <v>43066</v>
       </c>
@@ -4113,7 +4128,7 @@
       </c>
       <c r="N76" s="26"/>
     </row>
-    <row r="77" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" outlineLevel="1">
       <c r="B77" s="13" t="s">
         <v>10</v>
       </c>
@@ -4139,7 +4154,7 @@
       <c r="L77" s="14"/>
       <c r="M77" s="14"/>
     </row>
-    <row r="78" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" outlineLevel="1">
       <c r="B78" s="16" t="s">
         <v>13</v>
       </c>
@@ -4185,7 +4200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" outlineLevel="1">
       <c r="A79" s="23">
         <v>43073</v>
       </c>
@@ -4208,7 +4223,7 @@
       <c r="L79" s="14"/>
       <c r="M79" s="14"/>
     </row>
-    <row r="80" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" outlineLevel="1">
       <c r="B80" s="18" t="s">
         <v>11</v>
       </c>
@@ -4254,7 +4269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15">
       <c r="B81" s="18" t="s">
         <v>21</v>
       </c>
@@ -4300,7 +4315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15">
       <c r="C82" s="29">
         <f>+C75+1</f>
         <v>11</v>
@@ -4326,7 +4341,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15">
       <c r="B83" s="10">
         <v>43073</v>
       </c>
@@ -4372,7 +4387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" outlineLevel="1">
       <c r="A84" s="11">
         <f>+E84-1112.48</f>
         <v>154.95000000000005</v>
@@ -4402,7 +4417,7 @@
       <c r="L84" s="14"/>
       <c r="M84" s="14"/>
     </row>
-    <row r="85" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" outlineLevel="1">
       <c r="B85" s="16" t="s">
         <v>13</v>
       </c>
@@ -4448,7 +4463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" outlineLevel="1">
       <c r="B86" s="17" t="s">
         <v>14</v>
       </c>
@@ -4466,7 +4481,7 @@
       <c r="L86" s="14"/>
       <c r="M86" s="14"/>
     </row>
-    <row r="87" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" outlineLevel="1">
       <c r="B87" s="18" t="s">
         <v>11</v>
       </c>
@@ -4512,7 +4527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15">
       <c r="B88" s="18" t="s">
         <v>21</v>
       </c>
@@ -4558,7 +4573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15">
       <c r="C89" s="1">
         <f>+C82+1</f>
         <v>12</v>
@@ -4592,7 +4607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15">
       <c r="B90" s="10">
         <v>43080</v>
       </c>
@@ -4635,7 +4650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15">
       <c r="B91" s="13" t="s">
         <v>10</v>
       </c>
@@ -4661,7 +4676,7 @@
       <c r="L91" s="14"/>
       <c r="M91" s="14"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15">
       <c r="B92" s="16" t="s">
         <v>13</v>
       </c>
@@ -4704,7 +4719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15">
       <c r="B93" s="17" t="s">
         <v>14</v>
       </c>
@@ -4724,7 +4739,7 @@
       <c r="L93" s="14"/>
       <c r="M93" s="14"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15">
       <c r="A94" s="11">
         <f>+G94-241.92</f>
         <v>235.74000000000004</v>
@@ -4771,7 +4786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15">
       <c r="B95" s="18" t="s">
         <v>21</v>
       </c>
@@ -4814,7 +4829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" s="29" customFormat="1">
       <c r="C96" s="29">
         <f t="shared" ref="C96:D96" si="94">+C89+1</f>
         <v>13</v>
@@ -4852,7 +4867,7 @@
       </c>
       <c r="O96" s="44"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15">
       <c r="B97" s="10">
         <v>43087</v>
       </c>
@@ -4895,7 +4910,7 @@
       </c>
       <c r="O97" s="11"/>
     </row>
-    <row r="98" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" outlineLevel="1">
       <c r="B98" s="13" t="s">
         <v>10</v>
       </c>
@@ -4914,7 +4929,7 @@
       <c r="M98" s="14"/>
       <c r="N98" s="11"/>
     </row>
-    <row r="99" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" outlineLevel="1">
       <c r="B99" s="16" t="s">
         <v>13</v>
       </c>
@@ -4954,7 +4969,7 @@
       <c r="L99" s="9"/>
       <c r="M99" s="9"/>
     </row>
-    <row r="100" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" outlineLevel="1">
       <c r="A100" s="25">
         <v>43088</v>
       </c>
@@ -4986,7 +5001,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="101" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" outlineLevel="1">
       <c r="B101" s="18" t="s">
         <v>11</v>
       </c>
@@ -5029,7 +5044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15">
       <c r="B102" s="18" t="s">
         <v>21</v>
       </c>
@@ -5072,7 +5087,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15">
       <c r="C103" s="27">
         <f t="shared" ref="C103:M103" si="104">+C96+1</f>
         <v>14</v>
@@ -5115,7 +5130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15">
       <c r="B104" s="10">
         <v>43094</v>
       </c>
@@ -5157,7 +5172,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="105" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" outlineLevel="1">
       <c r="B105" s="13" t="s">
         <v>10</v>
       </c>
@@ -5175,7 +5190,7 @@
       <c r="L105" s="14"/>
       <c r="M105" s="14"/>
     </row>
-    <row r="106" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" outlineLevel="1">
       <c r="B106" s="16" t="s">
         <v>13</v>
       </c>
@@ -5215,7 +5230,7 @@
       <c r="L106" s="9"/>
       <c r="M106" s="9"/>
     </row>
-    <row r="107" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" outlineLevel="1">
       <c r="B107" s="17" t="s">
         <v>14</v>
       </c>
@@ -5243,7 +5258,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="108" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" outlineLevel="1">
       <c r="B108" s="18" t="s">
         <v>11</v>
       </c>
@@ -5286,7 +5301,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15">
       <c r="B109" s="18" t="s">
         <v>21</v>
       </c>
@@ -5332,7 +5347,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15">
       <c r="C110" s="39">
         <f>+C103+1</f>
         <v>15</v>
@@ -5375,7 +5390,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15">
       <c r="B111" s="10">
         <v>43101</v>
       </c>
@@ -5417,7 +5432,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15">
       <c r="B112" s="13" t="s">
         <v>10</v>
       </c>
@@ -5452,7 +5467,7 @@
       </c>
       <c r="N112" s="11"/>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14">
       <c r="B113" s="16" t="s">
         <v>13</v>
       </c>
@@ -5492,7 +5507,7 @@
       <c r="L113" s="9"/>
       <c r="M113" s="9"/>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14">
       <c r="B114" s="17" t="s">
         <v>14</v>
       </c>
@@ -5508,7 +5523,7 @@
       <c r="L114" s="14"/>
       <c r="M114" s="14"/>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14">
       <c r="B115" s="18" t="s">
         <v>11</v>
       </c>
@@ -5551,7 +5566,7 @@
         <v>2585.7600000000002</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14">
       <c r="B116" s="18" t="s">
         <v>21</v>
       </c>
@@ -5594,7 +5609,7 @@
         <v>2414.2399999999998</v>
       </c>
     </row>
-    <row r="117" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" s="27" customFormat="1">
       <c r="C117" s="27">
         <f>+C110+1</f>
         <v>16</v>
@@ -5642,11 +5657,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14">
       <c r="A118" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="B118" s="10">
+      <c r="B118" s="46">
         <v>43108</v>
       </c>
       <c r="C118" s="11">
@@ -5670,31 +5685,31 @@
       </c>
       <c r="H118" s="11"/>
       <c r="I118" s="11">
-        <f>+IF(I117&lt;&gt;0, I$4+I116,0)</f>
+        <f t="shared" ref="I118:N118" si="123">+IF(I117&lt;&gt;0, I$4+I116,0)</f>
         <v>-1860</v>
       </c>
       <c r="J118" s="11">
-        <f>+IF(J117&lt;&gt;0, J$4+J116,0)</f>
+        <f t="shared" si="123"/>
         <v>6369.51</v>
       </c>
       <c r="K118" s="11">
-        <f>+IF(K117&lt;&gt;0, K$4+K116,0)</f>
+        <f t="shared" si="123"/>
         <v>12254.72</v>
       </c>
       <c r="L118" s="11">
-        <f>+IF(L117&lt;&gt;0, L$4+L116,0)</f>
+        <f t="shared" si="123"/>
         <v>2500</v>
       </c>
       <c r="M118" s="11">
-        <f>+IF(M117&lt;&gt;0, M$4+M116,0)</f>
+        <f t="shared" si="123"/>
         <v>4914.24</v>
       </c>
       <c r="N118" s="11">
-        <f>+IF(N117&lt;&gt;0, N$4+N116,0)</f>
+        <f t="shared" si="123"/>
         <v>2500</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14">
       <c r="B119" s="13" t="s">
         <v>10</v>
       </c>
@@ -5711,7 +5726,7 @@
       <c r="M119" s="14"/>
       <c r="N119" s="14"/>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14">
       <c r="B120" s="16" t="s">
         <v>13</v>
       </c>
@@ -5732,27 +5747,27 @@
         <v>6310.75</v>
       </c>
       <c r="G120" s="9">
-        <f t="shared" ref="G120" si="123">+G118-G119</f>
+        <f t="shared" ref="G120" si="124">+G118-G119</f>
         <v>9328.6</v>
       </c>
       <c r="H120" s="9"/>
       <c r="I120" s="9">
-        <f t="shared" ref="I120:K120" si="124">+I118-I119</f>
+        <f t="shared" ref="I120:K120" si="125">+I118-I119</f>
         <v>-1860</v>
       </c>
       <c r="J120" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>6369.51</v>
       </c>
       <c r="K120" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>12254.72</v>
       </c>
       <c r="L120" s="9"/>
       <c r="M120" s="9"/>
       <c r="N120" s="9"/>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14">
       <c r="B121" s="17" t="s">
         <v>14</v>
       </c>
@@ -5769,7 +5784,7 @@
       <c r="M121" s="14"/>
       <c r="N121" s="14"/>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14">
       <c r="B122" s="18" t="s">
         <v>11</v>
       </c>
@@ -5790,49 +5805,49 @@
         <v>0</v>
       </c>
       <c r="G122" s="19">
-        <f t="shared" ref="G122" si="125">+G119+G121</f>
+        <f t="shared" ref="G122" si="126">+G119+G121</f>
         <v>0</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19">
-        <f t="shared" ref="I122:M122" si="126">+I119+I121</f>
+        <f t="shared" ref="I122:M122" si="127">+I119+I121</f>
         <v>0</v>
       </c>
       <c r="J122" s="19">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="K122" s="19">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="L122" s="19">
-        <f t="shared" ref="L122" si="127">+L119+L121</f>
+        <f t="shared" ref="L122" si="128">+L119+L121</f>
         <v>0</v>
       </c>
       <c r="M122" s="19">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="N122" s="19">
-        <f t="shared" ref="N122" si="128">+N119+N121</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ref="N122" si="129">+N119+N121</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14">
       <c r="B123" s="18" t="s">
         <v>21</v>
       </c>
       <c r="C123" s="11">
-        <f t="shared" ref="C123:E123" si="129">+C118-C122</f>
+        <f t="shared" ref="C123:E123" si="130">+C118-C122</f>
         <v>3640.3588</v>
       </c>
       <c r="D123" s="11">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>7407.75</v>
       </c>
       <c r="E123" s="11" t="e">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>#VALUE!</v>
       </c>
       <c r="F123" s="11">
@@ -5840,32 +5855,32 @@
         <v>6310.75</v>
       </c>
       <c r="G123" s="11">
-        <f t="shared" ref="G123" si="130">+G118-G122</f>
+        <f t="shared" ref="G123" si="131">+G118-G122</f>
         <v>9328.6</v>
       </c>
       <c r="H123" s="11"/>
       <c r="I123" s="11">
-        <f t="shared" ref="I123:M123" si="131">+I118-I122</f>
+        <f t="shared" ref="I123:M123" si="132">+I118-I122</f>
         <v>-1860</v>
       </c>
       <c r="J123" s="11">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>6369.51</v>
       </c>
       <c r="K123" s="11">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>12254.72</v>
       </c>
       <c r="L123" s="11">
-        <f t="shared" ref="L123" si="132">+L118-L122</f>
+        <f t="shared" ref="L123" si="133">+L118-L122</f>
         <v>2500</v>
       </c>
       <c r="M123" s="11">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>4914.24</v>
       </c>
       <c r="N123" s="11">
-        <f t="shared" ref="N123" si="133">+N118-N122</f>
+        <f t="shared" ref="N123" si="134">+N118-N122</f>
         <v>2500</v>
       </c>
     </row>
@@ -6143,7 +6158,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
@@ -6157,7 +6172,7 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="4" width="15.5703125" style="40" customWidth="1"/>
     <col min="5" max="5" width="12" style="40" bestFit="1" customWidth="1"/>
@@ -6169,7 +6184,7 @@
     <col min="11" max="11" width="14.140625" style="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:11" s="41" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" s="41" customFormat="1" ht="45">
       <c r="B6" s="2" t="str">
         <f>+Hoja1!C2</f>
         <v>Jorge Maldonado Guizar</v>
@@ -6211,7 +6226,7 @@
         <v>Jorge Montaño Ávila</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11">
       <c r="B7" s="5" t="str">
         <f>+Hoja1!C3</f>
         <v>ARRU-001</v>
@@ -6253,7 +6268,7 @@
         <v>ARRU-011</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11">
       <c r="B8" s="42">
         <f>+Hoja1!C121</f>
         <v>0</v>
@@ -6293,10 +6308,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="8:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="8:8">
       <c r="H22" s="43"/>
     </row>
-    <row r="23" spans="8:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="8:8">
       <c r="H23" s="43"/>
     </row>
   </sheetData>

--- a/180105 Pagos Uber.xlsx
+++ b/180105 Pagos Uber.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MUTUO\UberIsaF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mutuo Midgard\Documents\ProyectosMUTUO\Uber\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11310" xr2:uid="{4DEA2B8B-6281-4EF9-B395-DAD4507F7E2E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11310"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,12 +26,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Emilio</author>
   </authors>
   <commentList>
-    <comment ref="E30" authorId="0" shapeId="0" xr:uid="{22C8A628-BEA0-48F2-A6A2-7A0F0E0DBEC8}">
+    <comment ref="E30" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -44,7 +44,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E38" authorId="0" shapeId="0" xr:uid="{3E60682A-79B3-4F72-A88F-9C232FA909CF}">
+    <comment ref="E38" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -59,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D41" authorId="0" shapeId="0" xr:uid="{84DE530A-9620-45D7-8515-80BEC8B9CF02}">
+    <comment ref="D41" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -73,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E45" authorId="0" shapeId="0" xr:uid="{1B7150E6-3410-4F36-B1CF-4B6883B77F08}">
+    <comment ref="E45" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -88,7 +88,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E59" authorId="0" shapeId="0" xr:uid="{40D416BF-34E3-474F-A0BA-B5E940627D8A}">
+    <comment ref="E59" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -103,7 +103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E66" authorId="0" shapeId="0" xr:uid="{D26E8F04-1513-4868-8266-3D42996C3033}">
+    <comment ref="E66" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -118,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E73" authorId="0" shapeId="0" xr:uid="{2EF09CCA-471F-41D1-8192-41456D46FF6F}">
+    <comment ref="E73" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -133,7 +133,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E80" authorId="0" shapeId="0" xr:uid="{1DF9F132-1CAF-46DE-B3F8-52FA6CC34CBA}">
+    <comment ref="E80" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -148,7 +148,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E87" authorId="0" shapeId="0" xr:uid="{D94F33EA-FBA7-490F-B711-06722263AD6A}">
+    <comment ref="E87" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -163,7 +163,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C90" authorId="0" shapeId="0" xr:uid="{CE1BFA5B-11E8-41F5-9F27-83FBE4AADCC6}">
+    <comment ref="C90" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -178,7 +178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E94" authorId="0" shapeId="0" xr:uid="{853136E3-29DC-44A7-AE07-5FA9D042B02B}">
+    <comment ref="E94" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -193,7 +193,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E101" authorId="0" shapeId="0" xr:uid="{38A8BF79-8D61-42B6-B771-8DD3DCE2B5A4}">
+    <comment ref="E101" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -208,7 +208,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E108" authorId="0" shapeId="0" xr:uid="{60492F64-168A-4B9E-9A8C-6C3766838C51}">
+    <comment ref="E108" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -223,7 +223,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E115" authorId="0" shapeId="0" xr:uid="{584FDC24-7003-4395-BEDE-A4E65ACF2AA0}">
+    <comment ref="E115" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -238,7 +238,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E122" authorId="0" shapeId="0" xr:uid="{F500FBD8-2F92-46D1-BBAD-E3F212E79C57}">
+    <comment ref="E122" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -258,7 +258,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="47">
   <si>
     <t>Jorge Maldonado Guizar</t>
   </si>
@@ -383,9 +383,6 @@
     <t>V</t>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
     <t>ARRU-010</t>
   </si>
   <si>
@@ -401,13 +398,13 @@
     <t>ME</t>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
+    <t>JM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -1388,14 +1385,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C6ACC3B-7C3A-41BF-9BF7-1CD25DFEA792}">
-  <dimension ref="A1:S123"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O123"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="11" topLeftCell="I101" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="11" topLeftCell="C108" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="B124" sqref="B124"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -1415,7 +1412,7 @@
     <col min="16" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="27" customFormat="1">
+    <row r="1" spans="1:14" s="27" customFormat="1">
       <c r="B1" s="36"/>
       <c r="C1" s="27">
         <f>2730.27*2</f>
@@ -1433,7 +1430,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="56.25" customHeight="1">
+    <row r="2" spans="1:14" ht="56.25" customHeight="1">
+      <c r="A2" s="1">
+        <f>+C4*2</f>
+        <v>5460.5375999999997</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1462,16 +1463,20 @@
         <v>28</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1">
+        <f>+A2/6</f>
+        <v>910.0895999999999</v>
+      </c>
       <c r="B3" s="4" t="s">
         <v>34</v>
       </c>
@@ -1503,17 +1508,20 @@
         <v>32</v>
       </c>
       <c r="L3" s="33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M3" s="5" t="s">
         <v>33</v>
       </c>
       <c r="N3" s="33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="A4" s="11"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="11">
+        <f>+A3+C4</f>
+        <v>3640.3583999999996</v>
+      </c>
       <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
@@ -1553,12 +1561,8 @@
       <c r="N4" s="30">
         <v>2500</v>
       </c>
-      <c r="S4" s="1">
-        <f>208-24</f>
-        <v>184</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
+    </row>
+    <row r="5" spans="1:14">
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -1591,7 +1595,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:14">
       <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
@@ -1632,10 +1636,10 @@
         <v>43108</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:14">
       <c r="B7" s="4"/>
       <c r="C7" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>40</v>
@@ -1668,10 +1672,10 @@
         <v>39</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="B9" s="8" t="s">
         <v>16</v>
       </c>
@@ -1712,7 +1716,7 @@
         <v>428000</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:14">
       <c r="B10" s="34" t="s">
         <v>15</v>
       </c>
@@ -1763,7 +1767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:14">
       <c r="B11" s="33" t="s">
         <v>17</v>
       </c>
@@ -1816,7 +1820,7 @@
         <v>428000</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="15.75" customHeight="1">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1">
       <c r="C12" s="1">
         <v>1</v>
       </c>
@@ -1826,7 +1830,7 @@
       <c r="F12" s="9"/>
       <c r="J12" s="9"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:14">
       <c r="B13" s="10">
         <v>43007</v>
       </c>
@@ -1872,7 +1876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" outlineLevel="1">
+    <row r="14" spans="1:14" outlineLevel="1">
       <c r="A14" s="12">
         <v>43007</v>
       </c>
@@ -1911,7 +1915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19" outlineLevel="1">
+    <row r="15" spans="1:14" outlineLevel="1">
       <c r="A15" s="15"/>
       <c r="B15" s="16" t="s">
         <v>13</v>
@@ -1950,7 +1954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19" outlineLevel="1">
+    <row r="16" spans="1:14" outlineLevel="1">
       <c r="A16" s="12" t="s">
         <v>19</v>
       </c>
@@ -4324,8 +4328,9 @@
         <f t="shared" ref="D82:I82" si="71">+D75+1</f>
         <v>11</v>
       </c>
-      <c r="E82" s="29" t="s">
-        <v>47</v>
+      <c r="E82" s="29">
+        <f>+E75+1</f>
+        <v>8</v>
       </c>
       <c r="F82" s="29">
         <f>+F75+1</f>
@@ -4582,9 +4587,9 @@
         <f t="shared" ref="D89:K89" si="81">+D82+1</f>
         <v>12</v>
       </c>
-      <c r="E89" s="1" t="e">
+      <c r="E89" s="1">
         <f t="shared" si="81"/>
-        <v>#VALUE!</v>
+        <v>9</v>
       </c>
       <c r="F89" s="1">
         <f t="shared" si="81"/>
@@ -4616,9 +4621,9 @@
         <f>+IF(D89&lt;&gt;0, D$5+D88)</f>
         <v>1827.75</v>
       </c>
-      <c r="E90" s="11" t="e">
+      <c r="E90" s="11">
         <f>+IF(E89&lt;&gt;0, E$4+E88,0)</f>
-        <v>#VALUE!</v>
+        <v>13982.249999999998</v>
       </c>
       <c r="F90" s="11">
         <f>+IF(F89&lt;&gt;0, F$4+F88,0)</f>
@@ -4688,9 +4693,9 @@
         <f>+D90-D91</f>
         <v>-32.25</v>
       </c>
-      <c r="E92" s="9" t="e">
+      <c r="E92" s="9">
         <f>+E90-E91</f>
-        <v>#VALUE!</v>
+        <v>11362.159999999998</v>
       </c>
       <c r="F92" s="9">
         <f>+F90-F91</f>
@@ -4798,9 +4803,9 @@
         <f t="shared" si="91"/>
         <v>-32.25</v>
       </c>
-      <c r="E95" s="11" t="e">
+      <c r="E95" s="11">
         <f>+E90-E94</f>
-        <v>#VALUE!</v>
+        <v>11362.159999999998</v>
       </c>
       <c r="F95" s="11">
         <f>+F90-F94</f>
@@ -4838,9 +4843,9 @@
         <f t="shared" si="94"/>
         <v>13</v>
       </c>
-      <c r="E96" s="29" t="e">
+      <c r="E96" s="29">
         <f>+E89+1</f>
-        <v>#VALUE!</v>
+        <v>10</v>
       </c>
       <c r="F96" s="29">
         <f t="shared" ref="F96:K96" si="95">+F89+1</f>
@@ -4878,9 +4883,9 @@
         <f>+IF(D96&lt;&gt;0, D$5+D95)</f>
         <v>1827.75</v>
       </c>
-      <c r="E97" s="11" t="e">
+      <c r="E97" s="11">
         <f>+IF(E96&lt;&gt;0, E$4+E95,0)</f>
-        <v>#VALUE!</v>
+        <v>13862.159999999998</v>
       </c>
       <c r="F97" s="11">
         <f>+IF(F96&lt;&gt;0, F$4+F95,0)</f>
@@ -4941,9 +4946,9 @@
         <f>+D97-D98</f>
         <v>1827.75</v>
       </c>
-      <c r="E99" s="9" t="e">
+      <c r="E99" s="9">
         <f>+E97-E98</f>
-        <v>#VALUE!</v>
+        <v>13862.159999999998</v>
       </c>
       <c r="F99" s="9">
         <f>+F97-F98</f>
@@ -5056,9 +5061,9 @@
         <f t="shared" si="101"/>
         <v>1827.75</v>
       </c>
-      <c r="E102" s="11" t="e">
+      <c r="E102" s="11">
         <f t="shared" si="101"/>
-        <v>#VALUE!</v>
+        <v>11862.159999999998</v>
       </c>
       <c r="F102" s="11">
         <f>+F97-F101</f>
@@ -5096,9 +5101,9 @@
         <f t="shared" si="104"/>
         <v>14</v>
       </c>
-      <c r="E103" s="27" t="e">
+      <c r="E103" s="27">
         <f t="shared" si="104"/>
-        <v>#VALUE!</v>
+        <v>11</v>
       </c>
       <c r="F103" s="27">
         <f t="shared" si="104"/>
@@ -5141,9 +5146,9 @@
         <f>+IF(D103&lt;&gt;0, D$5+D102)</f>
         <v>3687.75</v>
       </c>
-      <c r="E104" s="11" t="e">
+      <c r="E104" s="11">
         <f>+IF(E103&lt;&gt;0, E$4+E102,0)</f>
-        <v>#VALUE!</v>
+        <v>14362.159999999998</v>
       </c>
       <c r="F104" s="11">
         <f>+IF(F103&lt;&gt;0, F$4+F102,0)</f>
@@ -5202,9 +5207,9 @@
         <f>+D104-D105</f>
         <v>3687.75</v>
       </c>
-      <c r="E106" s="9" t="e">
+      <c r="E106" s="9">
         <f>+E104-E105</f>
-        <v>#VALUE!</v>
+        <v>14362.159999999998</v>
       </c>
       <c r="F106" s="9">
         <f>+F104-F105</f>
@@ -5313,9 +5318,9 @@
         <f t="shared" ref="D109:G109" si="109">+D104-D108</f>
         <v>3687.75</v>
       </c>
-      <c r="E109" s="11" t="e">
+      <c r="E109" s="11">
         <f t="shared" si="109"/>
-        <v>#VALUE!</v>
+        <v>12362.159999999998</v>
       </c>
       <c r="F109" s="11">
         <f t="shared" si="109"/>
@@ -5356,9 +5361,9 @@
         <f t="shared" ref="D110:M110" si="114">+D103+1</f>
         <v>15</v>
       </c>
-      <c r="E110" s="39" t="e">
+      <c r="E110" s="39">
         <f t="shared" si="114"/>
-        <v>#VALUE!</v>
+        <v>12</v>
       </c>
       <c r="F110" s="39">
         <f t="shared" si="114"/>
@@ -5401,9 +5406,9 @@
         <f>+IF(D110&lt;&gt;0, D$5+D109)</f>
         <v>5547.75</v>
       </c>
-      <c r="E111" s="11" t="e">
+      <c r="E111" s="11">
         <f>+IF(E110&lt;&gt;0, E$4+E109,0)</f>
-        <v>#VALUE!</v>
+        <v>14862.159999999998</v>
       </c>
       <c r="F111" s="11">
         <f>+IF(F110&lt;&gt;0, F$4+F109,0)</f>
@@ -5479,9 +5484,9 @@
         <f>+D111-D112</f>
         <v>5547.75</v>
       </c>
-      <c r="E113" s="9" t="e">
+      <c r="E113" s="9">
         <f>+E111-E112</f>
-        <v>#VALUE!</v>
+        <v>14582.249999999998</v>
       </c>
       <c r="F113" s="9">
         <f>+F111-F112</f>
@@ -5578,9 +5583,9 @@
         <f t="shared" si="119"/>
         <v>5547.75</v>
       </c>
-      <c r="E116" s="11" t="e">
+      <c r="E116" s="11">
         <f t="shared" si="119"/>
-        <v>#VALUE!</v>
+        <v>14582.249999999998</v>
       </c>
       <c r="F116" s="11">
         <f>+F111-F115</f>
@@ -5618,9 +5623,9 @@
         <f t="shared" ref="D117:M117" si="122">+D110+1</f>
         <v>16</v>
       </c>
-      <c r="E117" s="27" t="e">
+      <c r="E117" s="27">
         <f t="shared" si="122"/>
-        <v>#VALUE!</v>
+        <v>13</v>
       </c>
       <c r="F117" s="27">
         <f t="shared" si="122"/>
@@ -5671,9 +5676,9 @@
         <f>+IF(D117&lt;&gt;0, D$5+D116)</f>
         <v>7407.75</v>
       </c>
-      <c r="E118" s="11" t="e">
+      <c r="E118" s="11">
         <f>+IF(E117&lt;&gt;0, E$4+E116,0)</f>
-        <v>#VALUE!</v>
+        <v>17082.25</v>
       </c>
       <c r="F118" s="11">
         <f>+IF(F117&lt;&gt;0, F$4+F116,0)</f>
@@ -5738,9 +5743,9 @@
         <f>+D118-D119</f>
         <v>7407.75</v>
       </c>
-      <c r="E120" s="9" t="e">
+      <c r="E120" s="9">
         <f>+E118-E119</f>
-        <v>#VALUE!</v>
+        <v>17082.25</v>
       </c>
       <c r="F120" s="9">
         <f>+F118-F119</f>
@@ -5846,9 +5851,9 @@
         <f t="shared" si="130"/>
         <v>7407.75</v>
       </c>
-      <c r="E123" s="11" t="e">
+      <c r="E123" s="11">
         <f t="shared" si="130"/>
-        <v>#VALUE!</v>
+        <v>17082.25</v>
       </c>
       <c r="F123" s="11">
         <f>+F118-F122</f>
@@ -6165,7 +6170,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3334DE1-371C-4342-8BAD-36C7EE0F3117}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:K23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
